--- a/data.xlsx
+++ b/data.xlsx
@@ -33,18 +33,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -53,6 +60,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -61,61 +97,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +128,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -152,14 +151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -168,30 +159,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,37 +213,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,145 +381,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,56 +404,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,157 +454,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,31 +978,31 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="26.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" ht="18" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="21" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="18" customHeight="1" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>manufacture part number</t>
+  </si>
+  <si>
+    <t>QTY needed</t>
+  </si>
+  <si>
+    <t>ERJ-8ENF1001V</t>
   </si>
   <si>
     <t>RC1206FR-07100RL</t>
@@ -33,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,21 +53,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF555555"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF555555"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -69,13 +107,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -91,22 +122,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,11 +152,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,16 +175,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,32 +212,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,13 +235,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,169 +397,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +426,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,45 +510,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -507,7 +529,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,137 +547,141 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,35 +1001,57 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="26.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="35.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+    <row r="4" ht="18" customHeight="1" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+    <row r="5" ht="18" customHeight="1" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
+      <c r="B5" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
